--- a/trunk/MT2012036_TimeSheet.xlsx
+++ b/trunk/MT2012036_TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,7 +717,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1283,8 +1283,8 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>12</v>
@@ -1300,8 +1300,8 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>14</v>

--- a/trunk/MT2012036_TimeSheet.xlsx
+++ b/trunk/MT2012036_TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>FEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1155,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1381,6 +1384,12 @@
     <row r="17" spans="2:10" ht="18.75" customHeight="1">
       <c r="B17" s="2">
         <v>41316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>24</v>

--- a/trunk/MT2012036_TimeSheet.xlsx
+++ b/trunk/MT2012036_TimeSheet.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -1159,7 +1159,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,6 +1401,12 @@
     <row r="18" spans="2:10">
       <c r="B18" s="2">
         <v>41317</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:10">
